--- a/Lena/design/DM368/doc/硬件单板的状态记录.xlsx
+++ b/Lena/design/DM368/doc/硬件单板的状态记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="482"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能看到bootme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小系统ok，FPGA加载失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +374,60 @@
   </si>
   <si>
     <t>小系统ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空口无法同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空口错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷机20分钟以上，内核检测不到FPGA10ms时间挂死。
+版本：2016-4-10的美国演示版本。
+没有加风扇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTAG无法连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空口ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uboot/fpga烧结完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uboot烧结完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +455,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -477,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,6 +552,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,372 +898,493 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>42508</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="13">
+        <v>303</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13">
+        <v>314</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="13">
+        <v>301</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>42248</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>42248</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>42248</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>42248</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>42449</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>42449</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>42449</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>42449</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>42449</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="8">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>42248</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="D13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="D15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>42449</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="F16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>42449</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>42449</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>42449</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>42449</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C26" s="11">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="11">
         <v>8</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>87</v>
+      <c r="E27" s="8"/>
+      <c r="F27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>42449</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="11">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
